--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Insl3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,93 +519,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7910729999999999</v>
+        <v>0.6840013333333334</v>
       </c>
       <c r="H2">
-        <v>2.373219</v>
+        <v>2.052004</v>
       </c>
       <c r="I2">
-        <v>0.5315562521866156</v>
+        <v>0.952316510035967</v>
       </c>
       <c r="J2">
-        <v>0.5315562521866157</v>
+        <v>0.9523165100359672</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0002143333333333333</v>
+        <v>0.026469</v>
       </c>
       <c r="N2">
-        <v>0.000643</v>
+        <v>0.052938</v>
       </c>
       <c r="O2">
-        <v>0.02184214548974982</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.03240927419354839</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.000169553313</v>
+        <v>0.018104831292</v>
       </c>
       <c r="R2">
-        <v>0.001525979817</v>
+        <v>0.108628987752</v>
       </c>
       <c r="S2">
-        <v>0.0116103289962462</v>
+        <v>0.952316510035967</v>
       </c>
       <c r="T2">
-        <v>0.01722735232641098</v>
+        <v>0.9523165100359672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7910729999999999</v>
+        <v>0.03424866666666667</v>
       </c>
       <c r="H3">
-        <v>2.373219</v>
+        <v>0.102746</v>
       </c>
       <c r="I3">
-        <v>0.5315562521866156</v>
+        <v>0.04768348996403295</v>
       </c>
       <c r="J3">
-        <v>0.5315562521866157</v>
+        <v>0.04768348996403295</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,276 +614,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.009598499999999999</v>
+        <v>0.026469</v>
       </c>
       <c r="N3">
-        <v>0.019197</v>
+        <v>0.052938</v>
       </c>
       <c r="O3">
-        <v>0.9781578545102502</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9675907258064516</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007593114190499998</v>
+        <v>0.000906527958</v>
       </c>
       <c r="R3">
-        <v>0.045558685143</v>
+        <v>0.005439167748</v>
       </c>
       <c r="S3">
-        <v>0.5199459231903694</v>
+        <v>0.04768348996403295</v>
       </c>
       <c r="T3">
-        <v>0.5143288998602047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.09061033333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.271831</v>
-      </c>
-      <c r="I4">
-        <v>0.06088501212409809</v>
-      </c>
-      <c r="J4">
-        <v>0.06088501212409809</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.0002143333333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.000643</v>
-      </c>
-      <c r="O4">
-        <v>0.02184214548974982</v>
-      </c>
-      <c r="P4">
-        <v>0.03240927419354839</v>
-      </c>
-      <c r="Q4">
-        <v>1.942081477777778E-05</v>
-      </c>
-      <c r="R4">
-        <v>0.000174787333</v>
-      </c>
-      <c r="S4">
-        <v>0.001329859292959732</v>
-      </c>
-      <c r="T4">
-        <v>0.001973239052207413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.09061033333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.271831</v>
-      </c>
-      <c r="I5">
-        <v>0.06088501212409809</v>
-      </c>
-      <c r="J5">
-        <v>0.06088501212409809</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.009598499999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.019197</v>
-      </c>
-      <c r="O5">
-        <v>0.9781578545102502</v>
-      </c>
-      <c r="P5">
-        <v>0.9675907258064516</v>
-      </c>
-      <c r="Q5">
-        <v>0.0008697232844999999</v>
-      </c>
-      <c r="R5">
-        <v>0.005218339706999999</v>
-      </c>
-      <c r="S5">
-        <v>0.05955515283113835</v>
-      </c>
-      <c r="T5">
-        <v>0.05891177307189067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.6065373333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.819612</v>
-      </c>
-      <c r="I6">
-        <v>0.4075587356892862</v>
-      </c>
-      <c r="J6">
-        <v>0.4075587356892862</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.0002143333333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.000643</v>
-      </c>
-      <c r="O6">
-        <v>0.02184214548974982</v>
-      </c>
-      <c r="P6">
-        <v>0.03240927419354839</v>
-      </c>
-      <c r="Q6">
-        <v>0.0001300011684444445</v>
-      </c>
-      <c r="R6">
-        <v>0.001170010516</v>
-      </c>
-      <c r="S6">
-        <v>0.008901957200543882</v>
-      </c>
-      <c r="T6">
-        <v>0.01320868281492999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.6065373333333334</v>
-      </c>
-      <c r="H7">
-        <v>1.819612</v>
-      </c>
-      <c r="I7">
-        <v>0.4075587356892862</v>
-      </c>
-      <c r="J7">
-        <v>0.4075587356892862</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.009598499999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.019197</v>
-      </c>
-      <c r="O7">
-        <v>0.9781578545102502</v>
-      </c>
-      <c r="P7">
-        <v>0.9675907258064516</v>
-      </c>
-      <c r="Q7">
-        <v>0.005821848594</v>
-      </c>
-      <c r="R7">
-        <v>0.034931091564</v>
-      </c>
-      <c r="S7">
-        <v>0.3986567784887424</v>
-      </c>
-      <c r="T7">
-        <v>0.3943500528743562</v>
+        <v>0.04768348996403295</v>
       </c>
     </row>
   </sheetData>
